--- a/labor-timekeeper/exports/2026-01/2026-01-26/Chris_Zavesky_2026-01-26.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-26/Chris_Zavesky_2026-01-26.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Weekly Timesheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Jason Schema" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -34,7 +35,7 @@
     <t>2026-01-26</t>
   </si>
   <si>
-    <t>Hewett</t>
+    <t>Tormey</t>
   </si>
   <si>
     <t>Regular</t>
@@ -43,25 +44,25 @@
     <t>2026-01-27</t>
   </si>
   <si>
-    <t>Knight</t>
+    <t>Richer</t>
   </si>
   <si>
     <t>2026-01-28</t>
   </si>
   <si>
-    <t>Winn</t>
+    <t>Durfee</t>
   </si>
   <si>
     <t>2026-01-29</t>
   </si>
   <si>
-    <t>Horr</t>
+    <t>Tercek</t>
   </si>
   <si>
     <t>2026-01-30</t>
   </si>
   <si>
-    <t>Davis</t>
+    <t>Patton</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
@@ -70,10 +71,34 @@
     <t/>
   </si>
   <si>
-    <t>Reg: 33 / OT: 0</t>
+    <t>Reg: 40 / OT: 0</t>
   </si>
   <si>
     <t>Category: ADMIN</t>
+  </si>
+  <si>
+    <t>HOURLY SUBTOTAL</t>
+  </si>
+  <si>
+    <t>ADMIN SUBTOTAL</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Chris Zavesky</t>
+  </si>
+  <si>
+    <t>emp_5chpvt65</t>
   </si>
 </sst>
 </file>
@@ -83,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -94,8 +119,12 @@
     <font>
       <b/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF0000"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +141,16 @@
         <fgColor rgb="FFFFE0B0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF3E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F8E0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -125,13 +164,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -510,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -530,16 +575,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,16 +615,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,16 +635,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -610,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
@@ -619,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="5">
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,6 +684,262 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>

--- a/labor-timekeeper/exports/2026-01/2026-01-26/Chris_Zavesky_2026-01-26.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-26/Chris_Zavesky_2026-01-26.xlsx
@@ -44,7 +44,7 @@
     <t>2026-01-27</t>
   </si>
   <si>
-    <t>Richer</t>
+    <t>Evans</t>
   </si>
   <si>
     <t>2026-01-28</t>
@@ -56,13 +56,13 @@
     <t>2026-01-29</t>
   </si>
   <si>
-    <t>Tercek</t>
+    <t>Hewett</t>
   </si>
   <si>
     <t>2026-01-30</t>
   </si>
   <si>
-    <t>Patton</t>
+    <t>Howard</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
@@ -98,7 +98,7 @@
     <t>Chris Zavesky</t>
   </si>
   <si>
-    <t>emp_5chpvt65</t>
+    <t>emp_jp4mlvog</t>
   </si>
 </sst>
 </file>
@@ -561,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,10 +581,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,10 +641,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>5600</v>
       </c>
     </row>
   </sheetData>
@@ -815,10 +815,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -844,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -873,10 +873,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -902,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -931,10 +931,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>

--- a/labor-timekeeper/exports/2026-01/2026-01-26/Chris_Zavesky_2026-01-26.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-26/Chris_Zavesky_2026-01-26.xlsx
@@ -5,75 +5,103 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Weekly Timesheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Jason Schema" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>Regan</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>Tattersall</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>Reg: 38 / OT: 0</t>
+  </si>
+  <si>
+    <t>Category: ADMIN</t>
+  </si>
+  <si>
+    <t>HOURLY SUBTOTAL</t>
+  </si>
+  <si>
+    <t>ADMIN SUBTOTAL</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
     <t>Client</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>Hewett</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>Winn</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>Horr</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Reg: 33 / OT: 0</t>
-  </si>
-  <si>
-    <t>Category: ADMIN</t>
+    <t>Chris Zavesky</t>
+  </si>
+  <si>
+    <t>emp_jp4mlvog</t>
   </si>
 </sst>
 </file>
@@ -83,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -94,8 +122,12 @@
     <font>
       <b/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF0000"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,16 +136,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0E0E0"/>
+        <fgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE0B0"/>
+        <fgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF3E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F8E0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,17 +163,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,175 +559,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>140</v>
+      </c>
+      <c r="F2" s="7">
+        <v>980</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>140</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1400</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7">
+        <v>980</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1050</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7">
+        <v>910</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5320</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5320</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="21">
+        <v>5320</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+    <col min="6" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="7">
+        <v>140</v>
+      </c>
+      <c r="G2" s="7">
+        <v>980</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>140</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F4" s="7">
+        <v>140</v>
+      </c>
+      <c r="G4" s="7">
+        <v>980</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>140</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1050</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
+      <c r="E6" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>140</v>
+      </c>
+      <c r="G6" s="7">
+        <v>910</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
